--- a/medicine/Enfance/Anne-Marie_Philipe/Anne-Marie_Philipe.xlsx
+++ b/medicine/Enfance/Anne-Marie_Philipe/Anne-Marie_Philipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Marie Philipe, de son vrai nom Anne-Marie Philip, née le 21 décembre 1954 à Boulogne-Billancourt, est une comédienne et femme de lettres française, auteur de littérature pour la jeunesse.
 </t>
@@ -513,24 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Anne-Marie Philip naît le 21 décembre 1954, à Boulogne-Billancourt, dans les Hauts-de-Seine, fille de Gérard Philipe (1922-1959), acteur et réalisateur, et d'Anne Philipe (1917-1990), écrivain, ethnologue et éditrice. Elle est l'aînée de son frère Olivier qui voit le jour le 9 février 1956.
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Philip naît le 21 décembre 1954, à Boulogne-Billancourt, dans les Hauts-de-Seine, fille de Gérard Philipe (1922-1959), acteur et réalisateur, et d'Anne Philipe (1917-1990), écrivain, ethnologue et éditrice. Elle est l'aînée de son frère Olivier qui voit le jour le 9 février 1956.
 Elle a cinq ans quand le décès de son père survient.
-Elle passe son enfance rue de Tournon. Ses parents avaient fait également l'acquisition d'une grande maison bourgeoise à Cergy, traversée par l'Oise et avaient hérité d'une ferme entourée de vignes, à Ramatuelle[1].
+Elle passe son enfance rue de Tournon. Ses parents avaient fait également l'acquisition d'une grande maison bourgeoise à Cergy, traversée par l'Oise et avaient hérité d'une ferme entourée de vignes, à Ramatuelle.
 À propos de son enfance Anne-Marie déclare[réf. souhaitée] : « À moi, mon père m'a donné la connaissance très tôt, du vide, le sentiment brutal de la solitude, la conscience de l'inconnu, mais aussi le souvenir de la vieille Ford qui nous emportait chaque jour vers la plage et sentait le vieux cuir. [...] Du carrelage noir et blanc et froid de ma chambre à Paris. De l'odeur de l'herbe et du brouillard à Cergy. »
-Théâtre
-Aimant la biologie, Anne-Marie Philipe s'est premièrement destinée à une carrière scientifique. Elle décide finalement de devenir comédienne. Elle suit les cours de comédie à la Rue Blanche[2].
-Elle joue l'infante du Cid, la reine dans Ruy Blas, ainsi que dans L'Annonce faite à Marie de Paul Claudel, dans L'Alouette de Jean Anouilh et dans des pièces plus contemporaines, comme Lundi, 8h.
-Cinéma
-Anne-Marie Philipe commence également tôt en tant qu'actrice : son premier rôle reconnu est celui de Mademoiselle Varthon dans La Vie de Marianne en 1976. Puis elle enchaîne les rôles dans La Maison des autres en 1977, Mazarin en 1978...
-Elle tourne dans plus de cent ﬁlms sous la direction, entre autres, de Josée Dayan, Michel Drach, Tony Gatlif, Lina Wertmuller, Yves Robert, Patrice Leconte, Bertrand Tavernier, Véra Belmont. Elle joue des rôles de bourgeoise, comme dans Guy de Maupassant où elle incarne la comtesse Potocka, ou dans La Veuve de Saint-Pierre, où elle est la femme du gouverneur ; elle incarne souvent des femmes de tête, mais sa filmographie est assez diversifiée : elle côtoie, tout au long de ses films, tous les acteurs connus de plusieurs générations.
-Anne-Marie Philipe est à l'origine de rétrospectives consacrées à son père ; elle est également présente à l'ouverture de centres qui portent le nom de Gérard Philipe.
-Équitation et écriture
-Elle "rencontre" son cheval, Danseur, et travaille "la Haute École (quand le cheval danse et marche de côté)". Elle imagine "d’écrire des livres pour les jeunes et de raconter les histoires de Danseur", ce seront 14 albums des aventures de Danseur qui seront publiés chez Gallimard Jeunesse[3].
-En 2008 elle annote et publie la Correspondance 1946-1978 qui retrace l'amitié entre le couple Philipe et le poète Georges Perros grâce à leurs échanges épistolaires, Jérôme Garcin signe la préface. Perros et Philipe s'étaient connus au Conservatoire en 1944.
-Vie privée
-Elle partage sa vie entre la Normandie, où elle peut pratiquer sa passion pour l'équitation, et Paris. Elle est mariée à Jérôme Garcin, journaliste littéraire et écrivain. Ils ont trois enfants.
-Après avoir longtemps souffert d'être enfermée dans un héritage trop lourd, « C'est éprouvant, disait-elle, d'être la fille d'un mythe et d'une femme exceptionnelle », à partir de 2006, Anne-Marie Philipe a rendu hommage à ses parents plusieurs années de suite en montant sur scène pour lire Le Temps d'un soupir, au Théâtre Hébertot où Gérard Philipe joua Caligula en 1947[4]. Apaisée, elle explique simplement qu'elle pense avoir assez grandi pour lire le livre de sa mère et confie[réf. souhaitée] : « Ces mots, j’ai choisi de les lire devant témoins pour qu’ils sachent combien je les aime, combien ils me manquent, combien ils nous manquent ».
 </t>
         </is>
       </c>
@@ -556,10 +560,165 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimant la biologie, Anne-Marie Philipe s'est premièrement destinée à une carrière scientifique. Elle décide finalement de devenir comédienne. Elle suit les cours de comédie à la Rue Blanche.
+Elle joue l'infante du Cid, la reine dans Ruy Blas, ainsi que dans L'Annonce faite à Marie de Paul Claudel, dans L'Alouette de Jean Anouilh et dans des pièces plus contemporaines, comme Lundi, 8h.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Philipe commence également tôt en tant qu'actrice : son premier rôle reconnu est celui de Mademoiselle Varthon dans La Vie de Marianne en 1976. Puis elle enchaîne les rôles dans La Maison des autres en 1977, Mazarin en 1978...
+Elle tourne dans plus de cent ﬁlms sous la direction, entre autres, de Josée Dayan, Michel Drach, Tony Gatlif, Lina Wertmuller, Yves Robert, Patrice Leconte, Bertrand Tavernier, Véra Belmont. Elle joue des rôles de bourgeoise, comme dans Guy de Maupassant où elle incarne la comtesse Potocka, ou dans La Veuve de Saint-Pierre, où elle est la femme du gouverneur ; elle incarne souvent des femmes de tête, mais sa filmographie est assez diversifiée : elle côtoie, tout au long de ses films, tous les acteurs connus de plusieurs générations.
+Anne-Marie Philipe est à l'origine de rétrospectives consacrées à son père ; elle est également présente à l'ouverture de centres qui portent le nom de Gérard Philipe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Équitation et écriture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle "rencontre" son cheval, Danseur, et travaille "la Haute École (quand le cheval danse et marche de côté)". Elle imagine "d’écrire des livres pour les jeunes et de raconter les histoires de Danseur", ce seront 14 albums des aventures de Danseur qui seront publiés chez Gallimard Jeunesse.
+En 2008 elle annote et publie la Correspondance 1946-1978 qui retrace l'amitié entre le couple Philipe et le poète Georges Perros grâce à leurs échanges épistolaires, Jérôme Garcin signe la préface. Perros et Philipe s'étaient connus au Conservatoire en 1944.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle partage sa vie entre la Normandie, où elle peut pratiquer sa passion pour l'équitation, et Paris. Elle est mariée à Jérôme Garcin, journaliste littéraire et écrivain. Ils ont trois enfants.
+Après avoir longtemps souffert d'être enfermée dans un héritage trop lourd, « C'est éprouvant, disait-elle, d'être la fille d'un mythe et d'une femme exceptionnelle », à partir de 2006, Anne-Marie Philipe a rendu hommage à ses parents plusieurs années de suite en montant sur scène pour lire Le Temps d'un soupir, au Théâtre Hébertot où Gérard Philipe joua Caligula en 1947. Apaisée, elle explique simplement qu'elle pense avoir assez grandi pour lire le livre de sa mère et confie[réf. souhaitée] : « Ces mots, j’ai choisi de les lire devant témoins pour qu’ils sachent combien je les aime, combien ils me manquent, combien ils nous manquent ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1976 : La Vie de Marianne de Pierre Cardinal d'après Marivaux
 1976 : La Maison des autres (télévision) de Jean-Pierre Marchand d'après Bernard Clavel
@@ -597,31 +756,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anne-Marie_Philipe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1977 : La Nuit de l'iguane de Tennessee Williams, mise en scène Andreas Voutsinas, Théâtre des Bouffes du Nord
 1979 : Le Cid de Pierre Corneille, Musée Corneille, Petit-Couronne (l'Infante)
@@ -631,31 +792,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anne-Marie_Philipe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Série de 14 albums pour enfants parus chez Gallimard-jeunesse sur son cheval portugais, Danseur, 2003-2008. Pour les enfants de 4 à 12 ans.
 Un livre reprend toutes les aventures de Danseur pour les plus grands. Paru à l'automne 2008 chez Gallimard-jeunesse.
@@ -664,31 +827,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anne-Marie_Philipe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Philipe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalière de l'ordre des Arts et des Lettres</t>
         </is>
